--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,26 +407,1206 @@
         <v>name</v>
       </c>
       <c r="B1" t="str">
-        <v>roomNum</v>
+        <v>deviceModelName</v>
       </c>
       <c r="C1" t="str">
-        <v>communityName</v>
+        <v>positionFullName</v>
+      </c>
+      <c r="D1" t="str">
+        <v>eventTime</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>HIP</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="str">
+        <v>Q330</v>
       </c>
       <c r="C2" t="str">
-        <v>pongpanot</v>
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2022-07-27 18:38:48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C3" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2022-07-27 18:34:14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C4" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2022-07-27 18:34:13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C5" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2022-07-27 18:32:40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C6" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2022-07-27 10:04:36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C7" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2022-07-26 18:44:29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C8" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2022-07-26 18:26:58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C9" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2022-07-26 18:22:34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C10" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2022-07-26 18:16:20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C11" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2022-07-26 18:15:20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C12" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2022-07-26 18:12:48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C13" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2022-07-26 18:12:47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C14" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2022-07-26 18:12:45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C15" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2022-07-26 18:12:13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C16" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2022-07-26 18:11:22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C17" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2022-07-26 18:09:41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C18" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2022-07-26 18:09:26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C19" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2022-07-26 18:09:25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C20" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2022-07-26 18:09:24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C21" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2022-07-26 18:09:15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C22" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2022-07-26 18:09:14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C23" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2022-07-26 18:09:13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C24" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2022-07-26 18:08:57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C25" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2022-07-26 18:08:56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C26" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2022-07-26 18:08:55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C27" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2022-07-26 18:08:54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C28" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2022-07-26 18:08:53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C29" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2022-07-26 18:08:52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C30" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2022-07-26 18:08:34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C31" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2022-07-26 18:08:33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C32" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2022-07-26 18:08:32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C33" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2022-07-26 18:08:22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C34" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2022-07-26 18:08:21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C35" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2022-07-26 18:08:20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C36" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2022-07-26 18:08:07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C37" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2022-07-26 18:08:06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C38" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2022-07-26 18:08:05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C39" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2022-07-26 18:08:04</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C40" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2022-07-26 18:08:03</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C41" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2022-07-26 18:08:02</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C42" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2022-07-26 18:07:08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C43" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2022-07-26 18:07:07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C44" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2022-07-26 18:07:06</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C45" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2022-07-26 18:07:05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C46" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2022-07-26 18:06:52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C47" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2022-07-26 18:06:51</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C48" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2022-07-26 18:06:50</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C49" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2022-07-26 18:06:49</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C50" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2022-07-26 18:06:47</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C51" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2022-07-26 18:06:46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C52" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2022-07-26 18:06:45</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C53" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2022-07-26 18:04:47</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C54" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2022-07-26 18:04:09</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C55" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2022-07-26 17:59:43</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C56" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2022-07-26 17:58:53</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C57" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2022-07-26 17:58:51</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C58" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2022-07-26 17:58:50</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C59" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2022-07-26 17:58:48</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C60" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2022-07-26 17:58:45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C61" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2022-07-26 17:58:44</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C62" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2022-07-26 17:58:42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C63" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2022-07-26 17:58:22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C64" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2022-07-26 17:58:20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C65" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2022-07-26 17:58:16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C66" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2022-07-26 17:58:13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C67" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2022-07-26 17:58:00</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C68" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2022-07-26 17:57:58</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C69" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2022-07-26 17:57:56</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C70" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2022-07-26 17:57:54</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C71" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2022-07-26 17:57:38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C72" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2022-07-26 17:57:37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C73" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2022-07-26 17:57:35</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C74" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2022-07-26 17:57:33</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C75" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2022-07-26 17:56:52</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C76" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2022-07-26 17:56:50</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C77" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2022-07-26 17:56:48</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C78" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2022-07-26 17:56:47</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C79" t="str">
+        <v>pongpanot/ประตูหน้า</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2022-07-26 17:54:32</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C80" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2022-07-26 17:54:14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C81" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2022-07-26 17:54:12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C82" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2022-07-26 17:54:10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C83" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2022-07-26 17:54:08</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C84" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2022-07-26 17:54:06</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C85" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2022-07-26 17:54:05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C86" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2022-07-26 17:54:03</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C87" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2022-07-26 17:54:01</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C88" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2022-07-26 17:54:00</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C89" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2022-07-26 17:53:58</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C90" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2022-07-26 17:53:56</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C91" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2022-07-26 17:53:54</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C92" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2022-07-26 17:53:53</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C93" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2022-07-26 17:53:52</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C94" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2022-07-26 17:53:51</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C95" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2022-07-26 17:53:49</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C96" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2022-07-26 17:53:47</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C97" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2022-07-26 17:53:11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C98" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2022-07-26 17:52:17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C99" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2022-07-26 17:52:14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C100" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D100" t="str">
+        <v>2022-07-26 17:52:13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C101" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2022-07-26 17:52:11</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C102" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2022-07-26 17:51:59</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C103" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2022-07-26 17:51:58</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C104" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2022-07-26 17:51:51</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C105" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2022-07-26 17:51:47</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C106" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2022-07-26 17:49:01</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C107" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D107" t="str">
+        <v>2022-07-26 17:48:38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C108" t="str">
+        <v>pongpanot/HIP/HIP</v>
+      </c>
+      <c r="D108" t="str">
+        <v>2022-07-26 17:37:25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="str">
+        <v>Q330</v>
+      </c>
+      <c r="C109" t="str">
+        <v>pongpanot/PD Room</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2022-07-21 18:42:40</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D109"/>
   </ignoredErrors>
 </worksheet>
 </file>